--- a/TEA-STATION_Project_VPTP1051/TEA-STATION_Project_Successfully_Completed_Candidates.xlsx
+++ b/TEA-STATION_Project_VPTP1051/TEA-STATION_Project_Successfully_Completed_Candidates.xlsx
@@ -16,6 +16,65 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>Monisha BV</t>
+  </si>
+  <si>
+    <t>monishamonii899@gmail.com</t>
+  </si>
+  <si>
+    <t>sunilraj5755@gmail.com</t>
+  </si>
+  <si>
+    <t>Sunil M.S</t>
+  </si>
+  <si>
+    <t>Bhavyashree</t>
+  </si>
+  <si>
+    <t>bhavyaainapure@gmail.com</t>
+  </si>
+  <si>
+    <t>Vijesh KV</t>
+  </si>
+  <si>
+    <t>Vijeshkutten79@gmail.com</t>
+  </si>
+  <si>
+    <t>Sneha KV</t>
+  </si>
+  <si>
+    <t>snehasnehakv7@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uppalapati Baba Dasthagiri </t>
+  </si>
+  <si>
+    <t>babadasthagiri83@gmail.com</t>
+  </si>
+  <si>
+    <t>V Rajendra</t>
+  </si>
+  <si>
+    <t>rajendraraju6024@gmail.com</t>
+  </si>
+  <si>
+    <t>J Pavan Kalyan</t>
+  </si>
+  <si>
+    <t>pavan.jpt01@gmail.com</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -331,12 +390,91 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/TEA-STATION_Project_VPTP1051/TEA-STATION_Project_Successfully_Completed_Candidates.xlsx
+++ b/TEA-STATION_Project_VPTP1051/TEA-STATION_Project_Successfully_Completed_Candidates.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>NAME</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>pavan.jpt01@gmail.com</t>
+  </si>
+  <si>
+    <t>Kanduri Silpa</t>
+  </si>
+  <si>
+    <t>deekshithdeekshi519@gmail.com</t>
+  </si>
+  <si>
+    <t>Deekshith R M</t>
   </si>
 </sst>
 </file>
@@ -390,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -474,7 +483,21 @@
         <v>17</v>
       </c>
     </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>